--- a/data/trans_dic/P70C3_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70C3_R_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0161719600465167</v>
+        <v>0.016689229685089</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04779166901821014</v>
+        <v>0.04688546347850121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0399439527588412</v>
+        <v>0.03912072404750478</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08658900549738058</v>
+        <v>0.08797246239559682</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1184985661958725</v>
+        <v>0.1233962785686013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09166967856887048</v>
+        <v>0.08825526378352354</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03887000895560597</v>
+        <v>0.0397635716574145</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03924489304037301</v>
+        <v>0.03868419618356413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04381519049489828</v>
+        <v>0.04446403127010241</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08397014361764961</v>
+        <v>0.08453803719229139</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08437259735160281</v>
+        <v>0.08280814625934234</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0752268731977722</v>
+        <v>0.07619736896487235</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05767812522122494</v>
+        <v>0.05767812522122495</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.05181897493273463</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05511697744560597</v>
+        <v>0.05511697744560599</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03969543049029952</v>
+        <v>0.03876181047992891</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03487613014930932</v>
+        <v>0.035834171990275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04261948921204479</v>
+        <v>0.04300448203094683</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0837882126532838</v>
+        <v>0.08111111355139325</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07979010790469408</v>
+        <v>0.07572058676067739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07250290018768994</v>
+        <v>0.07301230303741553</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04782166957641236</v>
+        <v>0.04782166957641235</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04438679318341986</v>
+        <v>0.04438679318341984</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04630580557140213</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03044978811006552</v>
+        <v>0.03054033806585675</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03019234407051519</v>
+        <v>0.02990674270401912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03334559829196283</v>
+        <v>0.03413584717374902</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0739032860029659</v>
+        <v>0.07516099465761909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0648691980363587</v>
+        <v>0.06528618657788075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06128008777443423</v>
+        <v>0.0609593496504414</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.05382176908054279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.05373381491926688</v>
+        <v>0.05373381491926689</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0428250744356611</v>
+        <v>0.04251592451515419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04414580919701096</v>
+        <v>0.04434979773605395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04547262188164278</v>
+        <v>0.04659235437655179</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06523768576384534</v>
+        <v>0.06694542937754118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06548405240514861</v>
+        <v>0.06545722863354601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06251767947849488</v>
+        <v>0.06218850758584205</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2873</v>
+        <v>2965</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8196</v>
+        <v>8041</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13947</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15384</v>
+        <v>15630</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20322</v>
+        <v>21162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32008</v>
+        <v>30816</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19792</v>
+        <v>20247</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14103</v>
+        <v>13901</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38055</v>
+        <v>38619</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42756</v>
+        <v>43045</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30320</v>
+        <v>29758</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65337</v>
+        <v>66180</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24897</v>
+        <v>24311</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16987</v>
+        <v>17453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47489</v>
+        <v>47918</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52551</v>
+        <v>50872</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38863</v>
+        <v>36881</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80787</v>
+        <v>81354</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18012</v>
+        <v>18065</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14107</v>
+        <v>13974</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35305</v>
+        <v>36142</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>43715</v>
+        <v>44459</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30310</v>
+        <v>30505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64881</v>
+        <v>64542</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81606</v>
+        <v>81017</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65564</v>
+        <v>65867</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>154185</v>
+        <v>157982</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>124314</v>
+        <v>127568</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>97255</v>
+        <v>97215</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>211980</v>
+        <v>210864</v>
       </c>
     </row>
     <row r="24">
